--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -1,72 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF379AC0-72C0-433F-B54D-4DCD76529076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A29094-B68B-4C00-88F1-578F7CFD81F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>кть людей</t>
+  </si>
+  <si>
+    <t>на 1 людину</t>
+  </si>
+  <si>
+    <t>меню рецепт</t>
+  </si>
+  <si>
+    <t>порція</t>
+  </si>
+  <si>
+    <t>варт</t>
+  </si>
+  <si>
+    <t>кал</t>
+  </si>
+  <si>
+    <t>кал100г</t>
+  </si>
+  <si>
+    <t>%ваги</t>
+  </si>
+  <si>
+    <t>%варт</t>
+  </si>
+  <si>
+    <t>%кал</t>
+  </si>
+  <si>
     <t>рецепт борщ</t>
   </si>
   <si>
-    <t>меню рецепт</t>
-  </si>
-  <si>
-    <t>варт</t>
-  </si>
-  <si>
-    <t>кал</t>
-  </si>
-  <si>
-    <t>ціна</t>
-  </si>
-  <si>
-    <t>кал100г</t>
-  </si>
-  <si>
-    <t>%ваги</t>
-  </si>
-  <si>
-    <t>%варт</t>
-  </si>
-  <si>
-    <t>порція</t>
-  </si>
-  <si>
-    <t>%кал</t>
-  </si>
-  <si>
-    <t>кть людей</t>
-  </si>
-  <si>
-    <t>на 1 людину</t>
-  </si>
-  <si>
     <t>рецепт смажена картопля</t>
   </si>
   <si>
-    <t>їжі всіх людей</t>
+    <t>на всіх людей</t>
+  </si>
+  <si>
+    <t>ціна1кг</t>
   </si>
 </sst>
 </file>
@@ -116,7 +111,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -406,79 +401,121 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>192500</v>
+      </c>
+      <c r="C2">
+        <v>2758.3674999999998</v>
+      </c>
+      <c r="D2">
+        <v>414750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>7.8810499999999992</v>
+      </c>
+      <c r="D3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>250</v>
+      </c>
+      <c r="C5">
+        <v>1.7157500000000001</v>
+      </c>
+      <c r="D5">
+        <v>390</v>
+      </c>
+      <c r="E5">
+        <v>6.8630000000000004</v>
+      </c>
+      <c r="F5">
+        <v>156</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>300</v>
+      </c>
+      <c r="C6">
+        <v>6.1652999999999993</v>
+      </c>
+      <c r="D6">
+        <v>795</v>
+      </c>
+      <c r="E6">
+        <v>20.550999999999998</v>
+      </c>
+      <c r="F6">
+        <v>265</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -486,6 +523,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -1,100 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\для харду\програмування\код\my scripts\chefs-math\mvp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A29094-B68B-4C00-88F1-578F7CFD81F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>кть людей</t>
-  </si>
-  <si>
-    <t>на 1 людину</t>
-  </si>
-  <si>
-    <t>меню рецепт</t>
-  </si>
-  <si>
-    <t>порція</t>
-  </si>
-  <si>
-    <t>варт</t>
-  </si>
-  <si>
-    <t>кал</t>
-  </si>
-  <si>
-    <t>кал100г</t>
-  </si>
-  <si>
-    <t>%ваги</t>
-  </si>
-  <si>
-    <t>%варт</t>
-  </si>
-  <si>
-    <t>%кал</t>
-  </si>
-  <si>
-    <t>рецепт борщ</t>
-  </si>
-  <si>
-    <t>рецепт смажена картопля</t>
-  </si>
-  <si>
-    <t>на всіх людей</t>
-  </si>
-  <si>
-    <t>ціна1кг</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,28 +58,87 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,129 +404,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="9" width="8" customWidth="1"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>кть людей</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>на всіх людей</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>192500</v>
       </c>
-      <c r="C2">
-        <v>2758.3674999999998</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>2758.3675</v>
+      </c>
+      <c r="D2" t="n">
         <v>414750</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>на 1 людину</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>550</v>
       </c>
-      <c r="C3">
-        <v>7.8810499999999992</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>7.881049999999999</v>
+      </c>
+      <c r="D3" t="n">
         <v>1185</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
+    <row r="4" customFormat="1" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>меню рецепт</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>порція</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>варт</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>кал</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ціна1кг</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>кал100г</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>%ваги</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>%варт</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>250</v>
       </c>
-      <c r="C5">
-        <v>1.7157500000000001</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>1.71575</v>
+      </c>
+      <c r="D5" t="n">
         <v>390</v>
       </c>
-      <c r="E5">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="F5" t="n">
         <v>156</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>рецепт смажена картопля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>300</v>
       </c>
-      <c r="C6">
-        <v>6.1652999999999993</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>6.165299999999999</v>
+      </c>
+      <c r="D6" t="n">
         <v>795</v>
       </c>
-      <c r="E6">
-        <v>20.550999999999998</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>20.551</v>
+      </c>
+      <c r="F6" t="n">
         <v>265</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="смажена картопля" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61,10 +63,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,16 +412,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.21875" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8" customWidth="1" style="3" min="2" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,134 +437,183 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>на всіх людей</t>
+          <t>на 1 людину</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>550</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.881049999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1185</v>
+      </c>
+      <c r="E2" t="n">
         <v>192500</v>
       </c>
-      <c r="C2" t="n">
-        <v>2758.3675</v>
-      </c>
-      <c r="D2" t="n">
-        <v>414750</v>
+      <c r="F2" t="n">
+        <v>2758.367499999999</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="1" s="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>на 1 людину</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>550</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.881049999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1185</v>
+          <t>меню рецепт</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>порція</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>варт 1</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>кал 1</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>заг вага</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>заг варт</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>ціна1кг</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>кал100г</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>%ваги</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>%варт</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>%кал</t>
+        </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>меню рецепт</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>порція</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>варт</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>кал</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ціна1кг</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>кал100г</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>%ваги</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>%варт</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>%кал</t>
-        </is>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>рецепт борщ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.71575</v>
+      </c>
+      <c r="D4" t="n">
+        <v>390</v>
+      </c>
+      <c r="E4" t="n">
+        <v>87500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>600.5125</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="I4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рецепт борщ</t>
+          <t>рецепт смажена картопля</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>1.71575</v>
+        <v>6.165299999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>390</v>
+        <v>795</v>
       </c>
       <c r="E5" t="n">
-        <v>6.863</v>
+        <v>105000</v>
       </c>
       <c r="F5" t="n">
-        <v>156</v>
-      </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+        <v>2157.855</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>20.551</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>265</v>
+      </c>
       <c r="I5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>рецепт смажена картопля</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.165299999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20.551</v>
-      </c>
-      <c r="F6" t="n">
-        <v>265</v>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -3,12 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="смажена картопля" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -580,40 +578,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="борщ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="смажена картопля" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +40,9 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,11 +66,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,4 +584,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,11 @@
           <t>назва групи</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>борщ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -617,6 +622,96 @@
         <is>
           <t>к-ть</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6562.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6562.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3062.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>437.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +739,11 @@
           <t>назва групи</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>смажена картопля</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -655,6 +755,36 @@
         <is>
           <t>к-ть</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,12 +71,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +425,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -448,16 +454,16 @@
         <v>550</v>
       </c>
       <c r="C2" t="n">
-        <v>7.881049999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1185</v>
+        <v>997.5</v>
       </c>
       <c r="E2" t="n">
         <v>192500</v>
       </c>
       <c r="F2" t="n">
-        <v>2758.367499999999</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="1">
@@ -532,22 +538,22 @@
         <v>250</v>
       </c>
       <c r="C4" t="n">
-        <v>1.71575</v>
+        <v>1.7</v>
       </c>
       <c r="D4" t="n">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="E4" t="n">
         <v>87500</v>
       </c>
       <c r="F4" t="n">
-        <v>600.5125</v>
+        <v>595</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.863</v>
+        <v>6.9</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>156</v>
+        <v>141.6</v>
       </c>
       <c r="I4" s="2" t="n"/>
     </row>
@@ -561,22 +567,22 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>6.165299999999999</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="n">
-        <v>795</v>
+        <v>643.5</v>
       </c>
       <c r="E5" t="n">
         <v>105000</v>
       </c>
       <c r="F5" t="n">
-        <v>2157.855</v>
+        <v>2170</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>20.551</v>
+        <v>20.6</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>265</v>
+        <v>214.5</v>
       </c>
       <c r="I5" s="2" t="n"/>
     </row>
@@ -601,7 +607,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>назва групи</t>
         </is>
@@ -613,12 +619,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -734,7 +740,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>назва групи</t>
         </is>
@@ -746,12 +752,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -550,7 +550,7 @@
         <v>595</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>141.6</v>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -435,23 +435,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>кть людей</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>350</v>
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>назва групи</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>смажена картопля</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>на 1 людину</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>550</v>
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>продукт</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>к-ть</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>7.9</v>
@@ -614,7 +618,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>борщ</t>
+          <t>смажена картопля</t>
         </is>
       </c>
     </row>

--- a/mvp/меню 2.xlsx
+++ b/mvp/меню 2.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -71,13 +76,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +431,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -435,27 +441,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>смажена картопля</t>
-        </is>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>кть гостей</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>продукт</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>к-ть</t>
-        </is>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>загалом</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>550</v>
       </c>
       <c r="C2" t="n">
         <v>7.9</v>
@@ -464,10 +466,10 @@
         <v>997.5</v>
       </c>
       <c r="E2" t="n">
-        <v>192500</v>
+        <v>27500</v>
       </c>
       <c r="F2" t="n">
-        <v>2765</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" customFormat="1" s="1">
@@ -548,10 +550,10 @@
         <v>354</v>
       </c>
       <c r="E4" t="n">
-        <v>87500</v>
+        <v>12500</v>
       </c>
       <c r="F4" t="n">
-        <v>595</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>6.8</v>
@@ -577,10 +579,10 @@
         <v>643.5</v>
       </c>
       <c r="E5" t="n">
-        <v>105000</v>
+        <v>15000</v>
       </c>
       <c r="F5" t="n">
-        <v>2170</v>
+        <v>310</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>20.6</v>
@@ -611,24 +613,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>смажена картопля</t>
+          <t>борщ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -641,7 +643,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +653,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5">
@@ -661,7 +663,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6">
@@ -671,7 +673,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6562.5</v>
+        <v>937.5</v>
       </c>
     </row>
     <row r="7">
@@ -681,7 +683,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6562.5</v>
+        <v>937.5</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +693,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3062.5</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +703,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>875</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -711,7 +713,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +723,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35000</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -744,9 +746,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>назва групи</t>
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>назва страви</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -756,12 +758,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>к-ть</t>
         </is>
@@ -774,7 +776,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98700</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +786,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
@@ -794,7 +796,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1050</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
